--- a/Excel Files/Three simple cases/Casus 1 - Feasible/Timetable Casus 1.xlsx
+++ b/Excel Files/Three simple cases/Casus 1 - Feasible/Timetable Casus 1.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">start</t>
   </si>
   <si>
-    <t xml:space="preserve">start time</t>
+    <t xml:space="preserve">departure_time</t>
   </si>
   <si>
     <t xml:space="preserve">end</t>
@@ -153,11 +153,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -170,31 +170,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE8F2A1"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -441,7 +416,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
